--- a/employees.xlsx
+++ b/employees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniizotov\Desktop\Файлы для бота\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B003CB70-442B-4F94-B33D-B171EFF5FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ADDB7C-AEA2-4B7E-B3D6-EC3C84ED6AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Tg_ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Марина</t>
+  </si>
+  <si>
+    <t>@IT_Svaha</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,12 +167,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,15 +474,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -549,7 +556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101700261</v>
       </c>
@@ -584,7 +591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -619,18 +626,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>836318110</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>41385</v>
+        <v>45768</v>
       </c>
       <c r="E5">
         <v>856</v>
@@ -642,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>0.57708333333333295</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>21</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ADDB7C-AEA2-4B7E-B3D6-EC3C84ED6AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDF995-9E26-413A-825E-7E5D4D607CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Tg_ID</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>@IT_Svaha</t>
+  </si>
+  <si>
+    <t>@IT_Sva</t>
+  </si>
+  <si>
+    <t>@IT</t>
+  </si>
+  <si>
+    <t>@ITaha</t>
+  </si>
+  <si>
+    <t>Марина2</t>
+  </si>
+  <si>
+    <t>Марина3</t>
+  </si>
+  <si>
+    <t>Марина4</t>
   </si>
 </sst>
 </file>
@@ -472,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>0.88194444444444442</v>
+        <v>0.88472222222222219</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>21</v>
@@ -658,6 +676,102 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45767</v>
+      </c>
+      <c r="E6">
+        <v>856</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.88472222222222219</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45767</v>
+      </c>
+      <c r="E7">
+        <v>856</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.75972222222222219</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45768</v>
+      </c>
+      <c r="E8">
+        <v>856</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABDF995-9E26-413A-825E-7E5D4D607CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75997B-EC6B-4EE0-9D9E-0A6ACD311136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>0.88472222222222219</v>
+        <v>0.89444444444444449</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>21</v>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>0.88472222222222219</v>
+        <v>0.89444444444444449</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="4">
-        <v>0.75972222222222219</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>21</v>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>21</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E75997B-EC6B-4EE0-9D9E-0A6ACD311136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD2BF89-2CF9-46D3-8551-7678F1AF2D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="4">
-        <v>0.89444444444444449</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\tg_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\Новая папка\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD2BF89-2CF9-46D3-8551-7678F1AF2D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68209F8C-2109-443E-8581-5F3ABE24257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Tg_ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Марина4</t>
+  </si>
+  <si>
+    <t>@IT_Sv</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +579,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101700261</v>
+        <v>836318110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -611,10 +614,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>836318110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -646,28 +649,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>836318110</v>
+        <v>83318110</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2">
-        <v>45768</v>
+        <v>43992</v>
       </c>
       <c r="E5">
         <v>856</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0.89444444444444449</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>21</v>
@@ -687,19 +690,19 @@
         <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>45767</v>
+        <v>43992</v>
       </c>
       <c r="E6">
         <v>856</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.90277777777777779</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>21</v>
@@ -719,19 +722,19 @@
         <v>32</v>
       </c>
       <c r="D7" s="2">
-        <v>45767</v>
+        <v>43992</v>
       </c>
       <c r="E7">
         <v>856</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>0.76944444444444449</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>21</v>
@@ -751,19 +754,19 @@
         <v>33</v>
       </c>
       <c r="D8" s="2">
-        <v>45768</v>
+        <v>43992</v>
       </c>
       <c r="E8">
         <v>856</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
-        <v>0.76944444444444449</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>21</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\Новая папка\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68209F8C-2109-443E-8581-5F3ABE24257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85118304-D697-417D-A9A0-0B119D4870F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,6 +503,7 @@
   <cols>
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.21875" customWidth="1"/>
   </cols>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -5,22 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мэкс\Desktop\Новая папка\tg_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniizotov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85118304-D697-417D-A9A0-0B119D4870F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7C8F6-09AA-4720-AE40-C5B1C2979A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Tg_ID</t>
   </si>
@@ -58,31 +72,28 @@
     <t>@EvgeniiZotov</t>
   </si>
   <si>
-    <t>8 915 333 33 33</t>
-  </si>
-  <si>
-    <t>Тбанк</t>
-  </si>
-  <si>
-    <t>Евгений З</t>
-  </si>
-  <si>
-    <t>8 915 444 44 44</t>
+    <t>Женя Зотов</t>
   </si>
   <si>
     <t>Сбер</t>
   </si>
   <si>
-    <t>8 915 666 66 66</t>
-  </si>
-  <si>
-    <t>ПСБ</t>
-  </si>
-  <si>
-    <t>8 915 555 55 55</t>
-  </si>
-  <si>
-    <t>Альфа</t>
+    <t>ВТБ</t>
+  </si>
+  <si>
+    <t>@geidene</t>
+  </si>
+  <si>
+    <t>Катя</t>
+  </si>
+  <si>
+    <t>8 999 999 99 99</t>
+  </si>
+  <si>
+    <t>8 999 999 99 98</t>
+  </si>
+  <si>
+    <t>Тинек</t>
   </si>
   <si>
     <t>@test1</t>
@@ -94,37 +105,40 @@
     <t>@test3</t>
   </si>
   <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Марина</t>
-  </si>
-  <si>
-    <t>@IT_Svaha</t>
-  </si>
-  <si>
-    <t>@IT_Sva</t>
-  </si>
-  <si>
-    <t>@IT</t>
-  </si>
-  <si>
-    <t>@ITaha</t>
-  </si>
-  <si>
-    <t>Марина2</t>
-  </si>
-  <si>
-    <t>Марина3</t>
-  </si>
-  <si>
-    <t>Марина4</t>
-  </si>
-  <si>
-    <t>@IT_Sv</t>
+    <t>ПРОЛ</t>
+  </si>
+  <si>
+    <t>РОЛД</t>
+  </si>
+  <si>
+    <t>КЕНГШ</t>
+  </si>
+  <si>
+    <t>8 999 999 99 97</t>
+  </si>
+  <si>
+    <t>8 999 999 99 96</t>
+  </si>
+  <si>
+    <t>8 999 999 99 95</t>
+  </si>
+  <si>
+    <t>МКБ</t>
+  </si>
+  <si>
+    <t>РСХБ</t>
+  </si>
+  <si>
+    <t>@test4</t>
+  </si>
+  <si>
+    <t>ВАПРОЛД</t>
+  </si>
+  <si>
+    <t>8 999 999 99 94</t>
+  </si>
+  <si>
+    <t>Точка</t>
   </si>
 </sst>
 </file>
@@ -134,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,9 +157,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,20 +210,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0BA95056-271B-4E35-A8D1-3D9D754D3B04}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,22 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.21875" customWidth="1"/>
+    <col min="1" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,250 +578,226 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>101700261</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44608</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.54583333333333295</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>518682970</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>44729</v>
+      </c>
+      <c r="E3">
+        <v>345</v>
+      </c>
+      <c r="F3" s="6">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.54722222222222205</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>123</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44729</v>
+      </c>
+      <c r="E4">
+        <v>3456</v>
+      </c>
+      <c r="F4" s="6">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1234</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
-        <v>40289</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.45208333333333334</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="D5" s="7">
+        <v>44729</v>
+      </c>
+      <c r="E5">
+        <v>43321</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>836318110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>53232</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44729</v>
+      </c>
+      <c r="E6">
+        <v>2332</v>
+      </c>
+      <c r="F6" s="6">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.55138888888888904</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
-        <v>40654</v>
-      </c>
-      <c r="E3">
-        <v>356</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.49375000000000002</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>836318110</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>41020</v>
-      </c>
-      <c r="E4">
-        <v>256</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.53541666666666698</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>83318110</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>567890</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44729</v>
+      </c>
+      <c r="E7">
+        <v>345678</v>
+      </c>
+      <c r="F7" s="6">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43992</v>
-      </c>
-      <c r="E5">
-        <v>856</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.90138888888888891</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43992</v>
-      </c>
-      <c r="E6">
-        <v>856</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.90138888888888891</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43992</v>
-      </c>
-      <c r="E7">
-        <v>856</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.90138888888888891</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43992</v>
-      </c>
-      <c r="E8">
-        <v>856</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.90138888888888891</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniizotov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\tg\tg_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7C8F6-09AA-4720-AE40-C5B1C2979A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Tg_ID</t>
   </si>
@@ -139,12 +138,18 @@
   </si>
   <si>
     <t>Точка</t>
+  </si>
+  <si>
+    <t>@IT_Svaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Максим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -232,8 +237,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0BA95056-271B-4E35-A8D1-3D9D754D3B04}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,25 +537,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101700261</v>
       </c>
@@ -608,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.54583333333333295</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>11</v>
@@ -620,7 +627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>518682970</v>
       </c>
@@ -643,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>0.54722222222222205</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
@@ -656,7 +663,7 @@
       </c>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>123</v>
       </c>
@@ -679,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.54861111111111105</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
@@ -691,7 +698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1234</v>
       </c>
@@ -714,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>11</v>
@@ -726,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>53232</v>
       </c>
@@ -749,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.55138888888888904</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -761,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>567890</v>
       </c>
@@ -784,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>0.55277777777777781</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>
@@ -794,6 +801,41 @@
       </c>
       <c r="K7" s="9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>836318110</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44608</v>
+      </c>
+      <c r="E8">
+        <v>123</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.54583333333333295</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,13 +644,13 @@
         <v>345</v>
       </c>
       <c r="F3" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6">
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>0.57986111111111105</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
@@ -680,13 +680,13 @@
         <v>3456</v>
       </c>
       <c r="F4" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.57777777777777783</v>
+        <v>0.58472222222222225</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
@@ -715,13 +715,13 @@
         <v>43321</v>
       </c>
       <c r="F5" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0.57708333333333328</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>11</v>
@@ -750,13 +750,13 @@
         <v>2332</v>
       </c>
       <c r="F6" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.58124999999999993</v>
+        <v>0.5854166666666667</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>345678</v>
       </c>
       <c r="F7" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>0.5805555555555556</v>
+        <v>0.58611111111111114</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +715,7 @@
         <v>43321</v>
       </c>
       <c r="F5" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
@@ -750,7 +750,7 @@
         <v>2332</v>
       </c>
       <c r="F6" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
@@ -785,7 +785,7 @@
         <v>345678</v>
       </c>
       <c r="F7" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,24 +95,6 @@
     <t>Тинек</t>
   </si>
   <si>
-    <t>@test1</t>
-  </si>
-  <si>
-    <t>@test2</t>
-  </si>
-  <si>
-    <t>@test3</t>
-  </si>
-  <si>
-    <t>ПРОЛ</t>
-  </si>
-  <si>
-    <t>РОЛД</t>
-  </si>
-  <si>
-    <t>КЕНГШ</t>
-  </si>
-  <si>
     <t>8 999 999 99 97</t>
   </si>
   <si>
@@ -128,16 +110,34 @@
     <t>РСХБ</t>
   </si>
   <si>
-    <t>@test4</t>
-  </si>
-  <si>
-    <t>ВАПРОЛД</t>
-  </si>
-  <si>
     <t>8 999 999 99 94</t>
   </si>
   <si>
     <t>Точка</t>
+  </si>
+  <si>
+    <t>@Marina</t>
+  </si>
+  <si>
+    <t>@Max</t>
+  </si>
+  <si>
+    <t>@Vika</t>
+  </si>
+  <si>
+    <t>@Dima</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Макс</t>
+  </si>
+  <si>
+    <t>Вика</t>
+  </si>
+  <si>
+    <t>Дима</t>
   </si>
   <si>
     <t>@IT_Svaha</t>
@@ -219,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +235,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -541,7 +542,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,13 +610,13 @@
         <v>123</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.5805555555555556</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>11</v>
@@ -643,14 +644,14 @@
       <c r="E3">
         <v>345</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>15</v>
       </c>
       <c r="G3" s="6">
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>0.58402777777777781</v>
+        <v>0.67222222222222228</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
@@ -668,10 +669,10 @@
         <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
         <v>44729</v>
@@ -679,23 +680,23 @@
       <c r="E4">
         <v>3456</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>15</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.58472222222222225</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -703,10 +704,10 @@
         <v>1234</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
         <v>44729</v>
@@ -714,23 +715,23 @@
       <c r="E5">
         <v>43321</v>
       </c>
-      <c r="F5" s="6">
-        <v>11</v>
+      <c r="F5">
+        <v>15</v>
       </c>
       <c r="G5" s="6">
         <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0.58402777777777781</v>
+        <v>0.67777777777777803</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -738,10 +739,10 @@
         <v>53232</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
         <v>44729</v>
@@ -749,20 +750,20 @@
       <c r="E6">
         <v>2332</v>
       </c>
-      <c r="F6" s="6">
-        <v>11</v>
+      <c r="F6">
+        <v>15</v>
       </c>
       <c r="G6" s="6">
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.5854166666666667</v>
+        <v>0.68055555555555602</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>14</v>
@@ -773,10 +774,10 @@
         <v>567890</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
         <v>44729</v>
@@ -784,36 +785,36 @@
       <c r="E7">
         <v>345678</v>
       </c>
-      <c r="F7" s="6">
-        <v>11</v>
+      <c r="F7">
+        <v>15</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>0.58611111111111114</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>836318110</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <v>44608</v>
       </c>
       <c r="E8">
@@ -826,15 +827,15 @@
         <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>0.54583333333333295</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>0.70972222222222225</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
     </row>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.70972222222222225</v>
+        <v>0.71875</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>0.70972222222222225</v>
+        <v>0.71875</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>0.67222222222222228</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.67500000000000004</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.68055555555555602</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="4">
-        <v>0.74305555555555547</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.74513888888888891</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>0.67777777777777803</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>11</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>0.74722222222222223</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>11</v>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>0.68333333333333302</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,13 +681,13 @@
         <v>3456</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6">
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <v>0.83680555555555547</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>11</v>
